--- a/spreadsheets/new/GSE107618.0.xlsx
+++ b/spreadsheets/new/GSE107618.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C6958-FCF7-4D41-8A8A-3019740BA867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29600" windowHeight="16840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="1271">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3832,13 +3838,16 @@
   </si>
   <si>
     <t>retinal pigment epithelium</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3875,6 +3884,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3921,7 +3938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3953,9 +3970,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3987,6 +4022,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4162,75 +4215,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4588,7 +4637,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4746,7 +4795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4925,12 +4974,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4953,7 +5002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4976,7 +5025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -4999,7 +5048,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -5022,7 +5071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -5045,7 +5094,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -5068,7 +5117,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -5091,7 +5140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -5114,7 +5163,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -5137,7 +5186,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -5160,7 +5209,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -5183,7 +5232,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>242</v>
       </c>
@@ -5206,7 +5255,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -5229,7 +5278,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -5252,7 +5301,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -5275,7 +5324,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -5298,7 +5347,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>255</v>
       </c>
@@ -5321,7 +5370,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>258</v>
       </c>
@@ -5344,7 +5393,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>261</v>
       </c>
@@ -5367,7 +5416,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>264</v>
       </c>
@@ -5390,7 +5439,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>266</v>
       </c>
@@ -5413,7 +5462,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5436,7 +5485,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5459,7 +5508,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>274</v>
       </c>
@@ -5482,7 +5531,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>276</v>
       </c>
@@ -5505,7 +5554,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>279</v>
       </c>
@@ -5528,7 +5577,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>281</v>
       </c>
@@ -5551,7 +5600,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -5574,7 +5623,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>287</v>
       </c>
@@ -5597,7 +5646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -5620,7 +5669,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -5643,7 +5692,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -5666,7 +5715,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -5689,7 +5738,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>302</v>
       </c>
@@ -5712,7 +5761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>305</v>
       </c>
@@ -5735,7 +5784,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>307</v>
       </c>
@@ -5758,7 +5807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -5781,7 +5830,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>312</v>
       </c>
@@ -5804,7 +5853,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>315</v>
       </c>
@@ -5827,7 +5876,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>317</v>
       </c>
@@ -5850,7 +5899,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>320</v>
       </c>
@@ -5873,7 +5922,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -5896,7 +5945,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>325</v>
       </c>
@@ -5919,7 +5968,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>328</v>
       </c>
@@ -5942,7 +5991,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>331</v>
       </c>
@@ -5965,7 +6014,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>333</v>
       </c>
@@ -5988,7 +6037,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>336</v>
       </c>
@@ -6011,7 +6060,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>339</v>
       </c>
@@ -6034,7 +6083,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>342</v>
       </c>
@@ -6057,7 +6106,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>345</v>
       </c>
@@ -6080,7 +6129,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>348</v>
       </c>
@@ -6103,7 +6152,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>351</v>
       </c>
@@ -6126,7 +6175,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>354</v>
       </c>
@@ -6149,7 +6198,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>356</v>
       </c>
@@ -6172,7 +6221,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -6195,7 +6244,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -6218,7 +6267,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>364</v>
       </c>
@@ -6241,7 +6290,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>367</v>
       </c>
@@ -6264,7 +6313,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>370</v>
       </c>
@@ -6287,7 +6336,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>373</v>
       </c>
@@ -6310,7 +6359,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>376</v>
       </c>
@@ -6333,7 +6382,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>378</v>
       </c>
@@ -6356,7 +6405,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -6379,7 +6428,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>383</v>
       </c>
@@ -6408,93 +6457,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -6727,7 +6774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6960,7 +7007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7175,7 +7222,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>490</v>
       </c>
@@ -7408,12 +7455,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>551</v>
       </c>
@@ -7433,7 +7480,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>556</v>
       </c>
@@ -7453,7 +7500,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>560</v>
       </c>
@@ -7473,7 +7520,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>563</v>
       </c>
@@ -7493,7 +7540,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>564</v>
       </c>
@@ -7513,7 +7560,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -7533,7 +7580,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>568</v>
       </c>
@@ -7553,7 +7600,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>569</v>
       </c>
@@ -7573,7 +7620,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>570</v>
       </c>
@@ -7593,7 +7640,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>573</v>
       </c>
@@ -7613,7 +7660,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>574</v>
       </c>
@@ -7636,7 +7683,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>578</v>
       </c>
@@ -7659,7 +7706,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>582</v>
       </c>
@@ -7682,7 +7729,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>583</v>
       </c>
@@ -7705,7 +7752,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>586</v>
       </c>
@@ -7728,7 +7775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>587</v>
       </c>
@@ -7751,7 +7798,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>590</v>
       </c>
@@ -7774,7 +7821,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>591</v>
       </c>
@@ -7803,67 +7850,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="392.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="392.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>594</v>
       </c>
@@ -8018,7 +8063,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8173,7 +8218,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -8322,7 +8367,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>695</v>
       </c>
@@ -8477,12 +8522,12 @@
         <v>745</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>746</v>
       </c>
@@ -8499,25 +8544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1118.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1118.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>749</v>
       </c>
@@ -8546,7 +8590,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>758</v>
       </c>
@@ -8575,7 +8619,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>767</v>
       </c>
@@ -8604,7 +8648,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>776</v>
       </c>
@@ -8633,12 +8677,12 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>785</v>
       </c>
@@ -8664,28 +8708,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>791</v>
       </c>
@@ -8723,7 +8767,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>803</v>
       </c>
@@ -8761,7 +8805,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>813</v>
       </c>
@@ -8799,7 +8843,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>824</v>
       </c>
@@ -8837,12 +8881,12 @@
         <v>835</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>836</v>
       </c>
@@ -8862,67 +8906,67 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>854</v>
       </c>
@@ -8933,21 +8977,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>855</v>
       </c>
@@ -8964,7 +9008,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>859</v>
       </c>
@@ -8981,7 +9025,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>864</v>
       </c>
@@ -8998,7 +9042,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>869</v>
       </c>
@@ -9015,12 +9059,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>874</v>
       </c>
@@ -9031,46 +9075,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>875</v>
       </c>
@@ -9162,7 +9204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>887</v>
       </c>
@@ -9254,7 +9296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -9334,7 +9376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>906</v>
       </c>
@@ -9426,12 +9468,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>918</v>
       </c>
@@ -9454,7 +9496,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>923</v>
       </c>
@@ -9477,7 +9519,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>925</v>
       </c>
@@ -9500,7 +9542,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>927</v>
       </c>
@@ -9523,7 +9565,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>928</v>
       </c>
@@ -9546,7 +9588,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>930</v>
       </c>
@@ -9569,7 +9611,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>931</v>
       </c>
@@ -9592,7 +9634,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>933</v>
       </c>
@@ -9615,7 +9657,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>934</v>
       </c>
@@ -9638,7 +9680,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>936</v>
       </c>
@@ -9661,7 +9703,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>937</v>
       </c>
@@ -9684,7 +9726,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>939</v>
       </c>
@@ -9707,7 +9749,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>940</v>
       </c>
@@ -9730,7 +9772,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>942</v>
       </c>
@@ -9753,7 +9795,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>943</v>
       </c>
@@ -9776,7 +9818,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>945</v>
       </c>
@@ -9799,7 +9841,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>946</v>
       </c>
@@ -9822,7 +9864,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>948</v>
       </c>
@@ -9845,7 +9887,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>949</v>
       </c>
@@ -9868,7 +9910,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>951</v>
       </c>
@@ -9891,7 +9933,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>952</v>
       </c>
@@ -9914,7 +9956,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>954</v>
       </c>
@@ -9937,7 +9979,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>955</v>
       </c>
@@ -9960,7 +10002,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>957</v>
       </c>
@@ -9983,7 +10025,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>958</v>
       </c>
@@ -10006,7 +10048,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>960</v>
       </c>
@@ -10029,7 +10071,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>961</v>
       </c>
@@ -10052,7 +10094,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>963</v>
       </c>
@@ -10075,7 +10117,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>964</v>
       </c>
@@ -10098,7 +10140,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>966</v>
       </c>
@@ -10121,7 +10163,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>967</v>
       </c>
@@ -10144,7 +10186,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>969</v>
       </c>
@@ -10167,7 +10209,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>970</v>
       </c>
@@ -10190,7 +10232,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>972</v>
       </c>
@@ -10213,7 +10255,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>973</v>
       </c>
@@ -10236,7 +10278,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>975</v>
       </c>
@@ -10259,7 +10301,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>976</v>
       </c>
@@ -10282,7 +10324,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>978</v>
       </c>
@@ -10305,7 +10347,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>979</v>
       </c>
@@ -10328,7 +10370,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>981</v>
       </c>
@@ -10351,7 +10393,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>982</v>
       </c>
@@ -10374,7 +10416,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>984</v>
       </c>
@@ -10397,7 +10439,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>985</v>
       </c>
@@ -10420,7 +10462,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>987</v>
       </c>
@@ -10443,7 +10485,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>988</v>
       </c>
@@ -10466,7 +10508,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>990</v>
       </c>
@@ -10489,7 +10531,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>991</v>
       </c>
@@ -10512,7 +10554,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>993</v>
       </c>
@@ -10535,7 +10577,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>994</v>
       </c>
@@ -10558,7 +10600,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>996</v>
       </c>
@@ -10581,7 +10623,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>997</v>
       </c>
@@ -10604,7 +10646,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>999</v>
       </c>
@@ -10627,7 +10669,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1000</v>
       </c>
@@ -10650,7 +10692,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1002</v>
       </c>
@@ -10673,7 +10715,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1003</v>
       </c>
@@ -10696,7 +10738,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1005</v>
       </c>
@@ -10719,7 +10761,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1006</v>
       </c>
@@ -10742,7 +10784,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1008</v>
       </c>
@@ -10765,7 +10807,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1009</v>
       </c>
@@ -10788,7 +10830,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1011</v>
       </c>
@@ -10811,7 +10853,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1012</v>
       </c>
@@ -10834,7 +10876,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1014</v>
       </c>
@@ -10857,7 +10899,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1015</v>
       </c>
@@ -10880,7 +10922,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1017</v>
       </c>
@@ -10903,7 +10945,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1018</v>
       </c>
@@ -10926,7 +10968,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1020</v>
       </c>
@@ -10949,7 +10991,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1021</v>
       </c>
@@ -10972,7 +11014,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1023</v>
       </c>
@@ -10995,7 +11037,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1024</v>
       </c>
@@ -11018,7 +11060,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1026</v>
       </c>
@@ -11041,7 +11083,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1027</v>
       </c>
@@ -11064,7 +11106,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1029</v>
       </c>
@@ -11087,7 +11129,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1030</v>
       </c>
@@ -11110,7 +11152,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1032</v>
       </c>
@@ -11133,7 +11175,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1033</v>
       </c>
@@ -11156,7 +11198,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1035</v>
       </c>
@@ -11179,7 +11221,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1036</v>
       </c>
@@ -11202,7 +11244,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1038</v>
       </c>
@@ -11225,7 +11267,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1039</v>
       </c>
@@ -11248,7 +11290,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1041</v>
       </c>
@@ -11271,7 +11313,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1042</v>
       </c>
@@ -11294,7 +11336,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1044</v>
       </c>
@@ -11317,7 +11359,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1045</v>
       </c>
@@ -11340,7 +11382,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1047</v>
       </c>
@@ -11363,7 +11405,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1048</v>
       </c>
@@ -11386,7 +11428,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1050</v>
       </c>
@@ -11409,7 +11451,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1051</v>
       </c>
@@ -11432,7 +11474,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1053</v>
       </c>
@@ -11455,7 +11497,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1054</v>
       </c>
@@ -11478,7 +11520,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1056</v>
       </c>
@@ -11501,7 +11543,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1057</v>
       </c>
@@ -11524,7 +11566,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1059</v>
       </c>
@@ -11547,7 +11589,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1060</v>
       </c>
@@ -11570,7 +11612,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1062</v>
       </c>
@@ -11593,7 +11635,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1063</v>
       </c>
@@ -11616,7 +11658,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1065</v>
       </c>
@@ -11639,7 +11681,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1066</v>
       </c>
@@ -11662,7 +11704,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1068</v>
       </c>
@@ -11685,7 +11727,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1069</v>
       </c>
@@ -11708,7 +11750,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1071</v>
       </c>
@@ -11731,7 +11773,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1072</v>
       </c>
@@ -11754,7 +11796,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1074</v>
       </c>
@@ -11777,7 +11819,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1075</v>
       </c>
@@ -11800,7 +11842,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1077</v>
       </c>
@@ -11823,7 +11865,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1078</v>
       </c>
@@ -11846,7 +11888,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1080</v>
       </c>
@@ -11869,7 +11911,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1081</v>
       </c>
@@ -11892,7 +11934,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1083</v>
       </c>
@@ -11915,7 +11957,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1084</v>
       </c>
@@ -11938,7 +11980,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1086</v>
       </c>
@@ -11961,7 +12003,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1087</v>
       </c>
@@ -11984,7 +12026,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1089</v>
       </c>
@@ -12007,7 +12049,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1090</v>
       </c>
@@ -12030,7 +12072,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1092</v>
       </c>
@@ -12053,7 +12095,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1093</v>
       </c>
@@ -12076,7 +12118,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1095</v>
       </c>
@@ -12099,7 +12141,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1096</v>
       </c>
@@ -12122,7 +12164,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1098</v>
       </c>
@@ -12145,7 +12187,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1099</v>
       </c>
@@ -12168,7 +12210,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1101</v>
       </c>
@@ -12191,7 +12233,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1102</v>
       </c>
@@ -12214,7 +12256,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1104</v>
       </c>
@@ -12237,7 +12279,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1105</v>
       </c>
@@ -12260,7 +12302,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1107</v>
       </c>
@@ -12283,7 +12325,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1108</v>
       </c>
@@ -12306,7 +12348,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1110</v>
       </c>
@@ -12329,7 +12371,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1111</v>
       </c>
@@ -12352,7 +12394,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1113</v>
       </c>
@@ -12381,34 +12423,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="589.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="589.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>886</v>
       </c>
@@ -12464,7 +12508,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -12520,7 +12564,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -12570,7 +12614,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>917</v>
       </c>
@@ -12626,12 +12670,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>922</v>
       </c>
@@ -12640,6 +12684,9 @@
       </c>
       <c r="G6" t="s">
         <v>1161</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
@@ -12648,76 +12695,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -12899,7 +12943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13081,7 +13125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -13242,7 +13286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -13424,12 +13468,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -13446,7 +13490,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -13463,7 +13507,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -13480,7 +13524,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -13497,7 +13541,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -13514,7 +13558,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -13531,7 +13575,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -13548,7 +13592,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -13565,7 +13609,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -13582,7 +13626,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>244</v>
       </c>
@@ -13599,7 +13643,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -13616,7 +13660,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>252</v>
       </c>
@@ -13633,7 +13677,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -13650,7 +13694,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -13667,7 +13711,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>263</v>
       </c>
@@ -13684,7 +13728,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>268</v>
       </c>
@@ -13701,7 +13745,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>273</v>
       </c>
@@ -13718,7 +13762,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>278</v>
       </c>
@@ -13735,7 +13779,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -13752,7 +13796,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>286</v>
       </c>
@@ -13769,7 +13813,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -13786,7 +13830,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -13803,7 +13847,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>295</v>
       </c>
@@ -13820,7 +13864,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>298</v>
       </c>
@@ -13837,7 +13881,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>301</v>
       </c>
@@ -13854,7 +13898,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -13871,7 +13915,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>309</v>
       </c>
@@ -13888,7 +13932,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>314</v>
       </c>
@@ -13905,7 +13949,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>319</v>
       </c>
@@ -13922,7 +13966,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>324</v>
       </c>
@@ -13939,7 +13983,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>327</v>
       </c>
@@ -13956,7 +14000,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -13973,7 +14017,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>335</v>
       </c>
@@ -13990,7 +14034,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -14007,7 +14051,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -14024,7 +14068,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -14041,7 +14085,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -14058,7 +14102,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>350</v>
       </c>
@@ -14075,7 +14119,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>353</v>
       </c>
@@ -14092,7 +14136,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>358</v>
       </c>
@@ -14109,7 +14153,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>363</v>
       </c>
@@ -14126,7 +14170,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>366</v>
       </c>
@@ -14143,7 +14187,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>369</v>
       </c>
@@ -14160,7 +14204,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -14177,7 +14221,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -14194,7 +14238,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>380</v>
       </c>
@@ -14211,7 +14255,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>385</v>
       </c>
